--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2878555</v>
+        <v>18.1667185</v>
       </c>
       <c r="H2">
-        <v>22.575711</v>
+        <v>36.333437</v>
       </c>
       <c r="I2">
-        <v>0.08226787741619844</v>
+        <v>0.1223713430663405</v>
       </c>
       <c r="J2">
-        <v>0.05888623016695</v>
+        <v>0.09065557961739065</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N2">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O2">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P2">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q2">
-        <v>979.5310679256538</v>
+        <v>919.3676375590472</v>
       </c>
       <c r="R2">
-        <v>3918.124271702615</v>
+        <v>3677.470550236189</v>
       </c>
       <c r="S2">
-        <v>0.02201562956292297</v>
+        <v>0.02492606479429397</v>
       </c>
       <c r="T2">
-        <v>0.01202388541601912</v>
+        <v>0.01391717325250717</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2878555</v>
+        <v>18.1667185</v>
       </c>
       <c r="H3">
-        <v>22.575711</v>
+        <v>36.333437</v>
       </c>
       <c r="I3">
-        <v>0.08226787741619844</v>
+        <v>0.1223713430663405</v>
       </c>
       <c r="J3">
-        <v>0.05888623016695</v>
+        <v>0.09065557961739065</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P3">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q3">
-        <v>1455.102680464769</v>
+        <v>2341.847907656057</v>
       </c>
       <c r="R3">
-        <v>8730.616082788614</v>
+        <v>14051.08744593634</v>
       </c>
       <c r="S3">
-        <v>0.03270442626895839</v>
+        <v>0.0634926119866467</v>
       </c>
       <c r="T3">
-        <v>0.02679239353097058</v>
+        <v>0.05317552260443394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2878555</v>
+        <v>18.1667185</v>
       </c>
       <c r="H4">
-        <v>22.575711</v>
+        <v>36.333437</v>
       </c>
       <c r="I4">
-        <v>0.08226787741619844</v>
+        <v>0.1223713430663405</v>
       </c>
       <c r="J4">
-        <v>0.05888623016695</v>
+        <v>0.09065557961739065</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N4">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O4">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P4">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q4">
-        <v>141.4321825811525</v>
+        <v>304.5259953744435</v>
       </c>
       <c r="R4">
-        <v>848.593095486915</v>
+        <v>1827.155972246661</v>
       </c>
       <c r="S4">
-        <v>0.00317878487159804</v>
+        <v>0.008256364899251448</v>
       </c>
       <c r="T4">
-        <v>0.002604150720448122</v>
+        <v>0.006914765428502691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2878555</v>
+        <v>18.1667185</v>
       </c>
       <c r="H5">
-        <v>22.575711</v>
+        <v>36.333437</v>
       </c>
       <c r="I5">
-        <v>0.08226787741619844</v>
+        <v>0.1223713430663405</v>
       </c>
       <c r="J5">
-        <v>0.05888623016695</v>
+        <v>0.09065557961739065</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N5">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O5">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P5">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q5">
-        <v>407.0022155065807</v>
+        <v>643.7832230941387</v>
       </c>
       <c r="R5">
-        <v>1628.008862026323</v>
+        <v>2575.132892376555</v>
       </c>
       <c r="S5">
-        <v>0.009147652689421299</v>
+        <v>0.01745436936950402</v>
       </c>
       <c r="T5">
-        <v>0.004996011013392871</v>
+        <v>0.009745440547207824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2878555</v>
+        <v>18.1667185</v>
       </c>
       <c r="H6">
-        <v>22.575711</v>
+        <v>36.333437</v>
       </c>
       <c r="I6">
-        <v>0.08226787741619844</v>
+        <v>0.1223713430663405</v>
       </c>
       <c r="J6">
-        <v>0.05888623016695</v>
+        <v>0.09065557961739065</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N6">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O6">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P6">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q6">
-        <v>482.1875638645495</v>
+        <v>61.82156105612201</v>
       </c>
       <c r="R6">
-        <v>2893.125383187297</v>
+        <v>370.9293663367321</v>
       </c>
       <c r="S6">
-        <v>0.01083749472936157</v>
+        <v>0.001676117554736451</v>
       </c>
       <c r="T6">
-        <v>0.008878383044880808</v>
+        <v>0.001403760597190764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2878555</v>
+        <v>18.1667185</v>
       </c>
       <c r="H7">
-        <v>22.575711</v>
+        <v>36.333437</v>
       </c>
       <c r="I7">
-        <v>0.08226787741619844</v>
+        <v>0.1223713430663405</v>
       </c>
       <c r="J7">
-        <v>0.05888623016695</v>
+        <v>0.09065557961739065</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N7">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O7">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P7">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q7">
-        <v>195.050327744841</v>
+        <v>242.172094966116</v>
       </c>
       <c r="R7">
-        <v>1170.301966469046</v>
+        <v>1453.032569796696</v>
       </c>
       <c r="S7">
-        <v>0.004383889293936169</v>
+        <v>0.006565814461907929</v>
       </c>
       <c r="T7">
-        <v>0.003591406441238495</v>
+        <v>0.005498917187548262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>286.583305</v>
       </c>
       <c r="I8">
-        <v>0.6962231873972581</v>
+        <v>0.6434767683046462</v>
       </c>
       <c r="J8">
-        <v>0.7475206632577479</v>
+        <v>0.715054169619088</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N8">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O8">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P8">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q8">
-        <v>8289.654038546512</v>
+        <v>4834.39751069543</v>
       </c>
       <c r="R8">
-        <v>49737.92423127907</v>
+        <v>29006.38506417258</v>
       </c>
       <c r="S8">
-        <v>0.1863156345861612</v>
+        <v>0.1310710761071665</v>
       </c>
       <c r="T8">
-        <v>0.1526350519575689</v>
+        <v>0.1097729759769522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>286.583305</v>
       </c>
       <c r="I9">
-        <v>0.6962231873972581</v>
+        <v>0.6434767683046462</v>
       </c>
       <c r="J9">
-        <v>0.7475206632577479</v>
+        <v>0.715054169619088</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>386.726074</v>
       </c>
       <c r="O9">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P9">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q9">
         <v>12314.35960184384</v>
@@ -1013,10 +1013,10 @@
         <v>110829.2364165946</v>
       </c>
       <c r="S9">
-        <v>0.276773640138788</v>
+        <v>0.3338691865973818</v>
       </c>
       <c r="T9">
-        <v>0.3401112233836698</v>
+        <v>0.4194267944725649</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>286.583305</v>
       </c>
       <c r="I10">
-        <v>0.6962231873972581</v>
+        <v>0.6434767683046462</v>
       </c>
       <c r="J10">
-        <v>0.7475206632577479</v>
+        <v>0.715054169619088</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N10">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O10">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P10">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q10">
-        <v>1196.923611618703</v>
+        <v>1601.317746934185</v>
       </c>
       <c r="R10">
-        <v>10772.31250456832</v>
+        <v>14411.85972240767</v>
       </c>
       <c r="S10">
-        <v>0.02690167541527461</v>
+        <v>0.04341522181736658</v>
       </c>
       <c r="T10">
-        <v>0.03305792318940271</v>
+        <v>0.05454084428621609</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>286.583305</v>
       </c>
       <c r="I11">
-        <v>0.6962231873972581</v>
+        <v>0.6434767683046462</v>
       </c>
       <c r="J11">
-        <v>0.7475206632577479</v>
+        <v>0.715054169619088</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N11">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O11">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P11">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q11">
-        <v>3444.410973728894</v>
+        <v>3385.266006770762</v>
       </c>
       <c r="R11">
-        <v>20666.46584237336</v>
+        <v>20311.59604062457</v>
       </c>
       <c r="S11">
-        <v>0.07741548843434712</v>
+        <v>0.0917819557524607</v>
       </c>
       <c r="T11">
-        <v>0.06342096370894049</v>
+        <v>0.0768680529920642</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>286.583305</v>
       </c>
       <c r="I12">
-        <v>0.6962231873972581</v>
+        <v>0.6434767683046462</v>
       </c>
       <c r="J12">
-        <v>0.7475206632577479</v>
+        <v>0.715054169619088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N12">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O12">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P12">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q12">
-        <v>4080.695566493304</v>
+        <v>325.0821419715534</v>
       </c>
       <c r="R12">
-        <v>36726.26009843974</v>
+        <v>2925.73927774398</v>
       </c>
       <c r="S12">
-        <v>0.09171641910371488</v>
+        <v>0.008813686933515086</v>
       </c>
       <c r="T12">
-        <v>0.1127050375537632</v>
+        <v>0.01107229000580658</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>286.583305</v>
       </c>
       <c r="I13">
-        <v>0.6962231873972581</v>
+        <v>0.6434767683046462</v>
       </c>
       <c r="J13">
-        <v>0.7475206632577479</v>
+        <v>0.715054169619088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N13">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O13">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P13">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q13">
-        <v>1650.687548414303</v>
+        <v>1273.43635476716</v>
       </c>
       <c r="R13">
-        <v>14856.18793572873</v>
+        <v>11460.92719290444</v>
       </c>
       <c r="S13">
-        <v>0.03710032971897227</v>
+        <v>0.0345256410967556</v>
       </c>
       <c r="T13">
-        <v>0.0455904634644028</v>
+        <v>0.04337321188548404</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.500914666666667</v>
+        <v>7.527206666666667</v>
       </c>
       <c r="H14">
-        <v>4.502744</v>
+        <v>22.58162</v>
       </c>
       <c r="I14">
-        <v>0.01093893023431312</v>
+        <v>0.05070339969972629</v>
       </c>
       <c r="J14">
-        <v>0.01174490670822519</v>
+        <v>0.05634341308805058</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N14">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O14">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P14">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q14">
-        <v>130.2455144208107</v>
+        <v>380.9312182908567</v>
       </c>
       <c r="R14">
-        <v>781.4730865248639</v>
+        <v>2285.58730974514</v>
       </c>
       <c r="S14">
-        <v>0.002927356866580312</v>
+        <v>0.01032787738156315</v>
       </c>
       <c r="T14">
-        <v>0.002398173767978674</v>
+        <v>0.00864967214255786</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.500914666666667</v>
+        <v>7.527206666666667</v>
       </c>
       <c r="H15">
-        <v>4.502744</v>
+        <v>22.58162</v>
       </c>
       <c r="I15">
-        <v>0.01093893023431312</v>
+        <v>0.05070339969972629</v>
       </c>
       <c r="J15">
-        <v>0.01174490670822519</v>
+        <v>0.05634341308805058</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>386.726074</v>
       </c>
       <c r="O15">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P15">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q15">
-        <v>193.4809454830062</v>
+        <v>970.3223607955423</v>
       </c>
       <c r="R15">
-        <v>1741.328509347056</v>
+        <v>8732.901247159882</v>
       </c>
       <c r="S15">
-        <v>0.004348616356047282</v>
+        <v>0.02630755863971619</v>
       </c>
       <c r="T15">
-        <v>0.005343764775214239</v>
+        <v>0.03304915647684906</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.500914666666667</v>
+        <v>7.527206666666667</v>
       </c>
       <c r="H16">
-        <v>4.502744</v>
+        <v>22.58162</v>
       </c>
       <c r="I16">
-        <v>0.01093893023431312</v>
+        <v>0.05070339969972629</v>
       </c>
       <c r="J16">
-        <v>0.01174490670822519</v>
+        <v>0.05634341308805058</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N16">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O16">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P16">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q16">
-        <v>18.80584289679556</v>
+        <v>126.17744379954</v>
       </c>
       <c r="R16">
-        <v>169.25258607116</v>
+        <v>1135.59699419586</v>
       </c>
       <c r="S16">
-        <v>0.0004226741594946547</v>
+        <v>0.003420946106038807</v>
       </c>
       <c r="T16">
-        <v>0.0005193999884031762</v>
+        <v>0.004297600727825032</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.500914666666667</v>
+        <v>7.527206666666667</v>
       </c>
       <c r="H17">
-        <v>4.502744</v>
+        <v>22.58162</v>
       </c>
       <c r="I17">
-        <v>0.01093893023431312</v>
+        <v>0.05070339969972629</v>
       </c>
       <c r="J17">
-        <v>0.01174490670822519</v>
+        <v>0.05634341308805058</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N17">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O17">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P17">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q17">
-        <v>54.11794956266533</v>
+        <v>266.74544270405</v>
       </c>
       <c r="R17">
-        <v>324.707697375992</v>
+        <v>1600.4726562243</v>
       </c>
       <c r="S17">
-        <v>0.001216337867465189</v>
+        <v>0.007232051593720304</v>
       </c>
       <c r="T17">
-        <v>0.0009964584776306123</v>
+        <v>0.00605689561297598</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.500914666666667</v>
+        <v>7.527206666666667</v>
       </c>
       <c r="H18">
-        <v>4.502744</v>
+        <v>22.58162</v>
       </c>
       <c r="I18">
-        <v>0.01093893023431312</v>
+        <v>0.05070339969972629</v>
       </c>
       <c r="J18">
-        <v>0.01174490670822519</v>
+        <v>0.05634341308805058</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N18">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O18">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P18">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q18">
-        <v>64.11513565960978</v>
+        <v>25.61517461314667</v>
       </c>
       <c r="R18">
-        <v>577.036220936488</v>
+        <v>230.53657151832</v>
       </c>
       <c r="S18">
-        <v>0.00144103145094491</v>
+        <v>0.0006944833340225557</v>
       </c>
       <c r="T18">
-        <v>0.001770800750640314</v>
+        <v>0.0008724522366748544</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.500914666666667</v>
+        <v>7.527206666666667</v>
       </c>
       <c r="H19">
-        <v>4.502744</v>
+        <v>22.58162</v>
       </c>
       <c r="I19">
-        <v>0.01093893023431312</v>
+        <v>0.05070339969972629</v>
       </c>
       <c r="J19">
-        <v>0.01174490670822519</v>
+        <v>0.05634341308805058</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N19">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O19">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P19">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q19">
-        <v>25.93529813084267</v>
+        <v>100.34169944944</v>
       </c>
       <c r="R19">
-        <v>233.417683177584</v>
+        <v>903.0752950449601</v>
       </c>
       <c r="S19">
-        <v>0.0005829135337807765</v>
+        <v>0.002720482644665286</v>
       </c>
       <c r="T19">
-        <v>0.0007163089483581708</v>
+        <v>0.003417635891167785</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.959331</v>
+        <v>26.4148145</v>
       </c>
       <c r="H20">
-        <v>33.918662</v>
+        <v>52.829629</v>
       </c>
       <c r="I20">
-        <v>0.1236025889743835</v>
+        <v>0.1779306663013051</v>
       </c>
       <c r="J20">
-        <v>0.08847305573175439</v>
+        <v>0.1318152377923044</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N20">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O20">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P20">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q20">
-        <v>1471.687124780668</v>
+        <v>1336.781081482903</v>
       </c>
       <c r="R20">
-        <v>5886.748499122671</v>
+        <v>5347.124325931612</v>
       </c>
       <c r="S20">
-        <v>0.03307717297860483</v>
+        <v>0.0362430549995177</v>
       </c>
       <c r="T20">
-        <v>0.01806517213799742</v>
+        <v>0.02023588078547805</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.959331</v>
+        <v>26.4148145</v>
       </c>
       <c r="H21">
-        <v>33.918662</v>
+        <v>52.829629</v>
       </c>
       <c r="I21">
-        <v>0.1236025889743835</v>
+        <v>0.1779306663013051</v>
       </c>
       <c r="J21">
-        <v>0.08847305573175439</v>
+        <v>0.1318152377923044</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>386.726074</v>
       </c>
       <c r="O21">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P21">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q21">
-        <v>2186.205165098831</v>
+        <v>3405.099169007758</v>
       </c>
       <c r="R21">
-        <v>13117.23099059299</v>
+        <v>20430.59501404655</v>
       </c>
       <c r="S21">
-        <v>0.04913645379854131</v>
+        <v>0.09231967610153417</v>
       </c>
       <c r="T21">
-        <v>0.04025397651254385</v>
+        <v>0.07731839768071923</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.959331</v>
+        <v>26.4148145</v>
       </c>
       <c r="H22">
-        <v>33.918662</v>
+        <v>52.829629</v>
       </c>
       <c r="I22">
-        <v>0.1236025889743835</v>
+        <v>0.1779306663013051</v>
       </c>
       <c r="J22">
-        <v>0.08847305573175439</v>
+        <v>0.1318152377923044</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N22">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O22">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P22">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q22">
-        <v>212.4934358387383</v>
+        <v>442.7875996561395</v>
       </c>
       <c r="R22">
-        <v>1274.96061503243</v>
+        <v>2656.725597936837</v>
       </c>
       <c r="S22">
-        <v>0.00477593505827778</v>
+        <v>0.01200493899093764</v>
       </c>
       <c r="T22">
-        <v>0.003912581450211527</v>
+        <v>0.01005422339234857</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.959331</v>
+        <v>26.4148145</v>
       </c>
       <c r="H23">
-        <v>33.918662</v>
+        <v>52.829629</v>
       </c>
       <c r="I23">
-        <v>0.1236025889743835</v>
+        <v>0.1779306663013051</v>
       </c>
       <c r="J23">
-        <v>0.08847305573175439</v>
+        <v>0.1318152377923044</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N23">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O23">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P23">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q23">
-        <v>611.4966027434914</v>
+        <v>936.0751869548586</v>
       </c>
       <c r="R23">
-        <v>2445.986410973966</v>
+        <v>3744.300747819434</v>
       </c>
       <c r="S23">
-        <v>0.01374380366872485</v>
+        <v>0.02537904295208464</v>
       </c>
       <c r="T23">
-        <v>0.007506209169294834</v>
+        <v>0.01417008824545133</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.959331</v>
+        <v>26.4148145</v>
       </c>
       <c r="H24">
-        <v>33.918662</v>
+        <v>52.829629</v>
       </c>
       <c r="I24">
-        <v>0.1236025889743835</v>
+        <v>0.1779306663013051</v>
       </c>
       <c r="J24">
-        <v>0.08847305573175439</v>
+        <v>0.1318152377923044</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N24">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O24">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P24">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q24">
-        <v>724.4581133823457</v>
+        <v>89.889930721274</v>
       </c>
       <c r="R24">
-        <v>4346.748680294074</v>
+        <v>539.339584327644</v>
       </c>
       <c r="S24">
-        <v>0.01628269074900882</v>
+        <v>0.002437112365040331</v>
       </c>
       <c r="T24">
-        <v>0.01333924205558101</v>
+        <v>0.002041099264966497</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.959331</v>
+        <v>26.4148145</v>
       </c>
       <c r="H25">
-        <v>33.918662</v>
+        <v>52.829629</v>
       </c>
       <c r="I25">
-        <v>0.1236025889743835</v>
+        <v>0.1779306663013051</v>
       </c>
       <c r="J25">
-        <v>0.08847305573175439</v>
+        <v>0.1318152377923044</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N25">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O25">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P25">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q25">
-        <v>293.051507426122</v>
+        <v>352.123635625572</v>
       </c>
       <c r="R25">
-        <v>1758.309044556732</v>
+        <v>2112.741813753432</v>
       </c>
       <c r="S25">
-        <v>0.006586532721225904</v>
+        <v>0.009546840892190586</v>
       </c>
       <c r="T25">
-        <v>0.005395874406125742</v>
+        <v>0.007995548423340684</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.374463</v>
+        <v>0.5285683333333333</v>
       </c>
       <c r="H26">
-        <v>31.123389</v>
+        <v>1.585705</v>
       </c>
       <c r="I26">
-        <v>0.07561091212966771</v>
+        <v>0.003560445814819949</v>
       </c>
       <c r="J26">
-        <v>0.08118189713845646</v>
+        <v>0.00395649346020291</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N26">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O26">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P26">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q26">
-        <v>900.2692160211639</v>
+        <v>26.74938899423083</v>
       </c>
       <c r="R26">
-        <v>5401.615296126983</v>
+        <v>160.496333965385</v>
       </c>
       <c r="S26">
-        <v>0.02023416532239011</v>
+        <v>0.0007252343633154571</v>
       </c>
       <c r="T26">
-        <v>0.01657640209401112</v>
+        <v>0.0006073890343037705</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.374463</v>
+        <v>0.5285683333333333</v>
       </c>
       <c r="H27">
-        <v>31.123389</v>
+        <v>1.585705</v>
       </c>
       <c r="I27">
-        <v>0.07561091212966771</v>
+        <v>0.003560445814819949</v>
       </c>
       <c r="J27">
-        <v>0.08118189713845646</v>
+        <v>0.00395649346020291</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>386.726074</v>
       </c>
       <c r="O27">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P27">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q27">
-        <v>1337.358448616087</v>
+        <v>68.13705213024112</v>
       </c>
       <c r="R27">
-        <v>12036.22603754479</v>
+        <v>613.23346917217</v>
       </c>
       <c r="S27">
-        <v>0.03005804426390265</v>
+        <v>0.001847344312444862</v>
       </c>
       <c r="T27">
-        <v>0.03693660350743688</v>
+        <v>0.002320746371213489</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.374463</v>
+        <v>0.5285683333333333</v>
       </c>
       <c r="H28">
-        <v>31.123389</v>
+        <v>1.585705</v>
       </c>
       <c r="I28">
-        <v>0.07561091212966771</v>
+        <v>0.003560445814819949</v>
       </c>
       <c r="J28">
-        <v>0.08118189713845646</v>
+        <v>0.00395649346020291</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N28">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O28">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P28">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q28">
-        <v>129.9877505693983</v>
+        <v>8.860312214985001</v>
       </c>
       <c r="R28">
-        <v>1169.889755124585</v>
+        <v>79.74280993486499</v>
       </c>
       <c r="S28">
-        <v>0.002921563448021957</v>
+        <v>0.000240222417394158</v>
       </c>
       <c r="T28">
-        <v>0.003590141452782468</v>
+        <v>0.0003017820228183714</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.374463</v>
+        <v>0.5285683333333333</v>
       </c>
       <c r="H29">
-        <v>31.123389</v>
+        <v>1.585705</v>
       </c>
       <c r="I29">
-        <v>0.07561091212966771</v>
+        <v>0.003560445814819949</v>
       </c>
       <c r="J29">
-        <v>0.08118189713845646</v>
+        <v>0.00395649346020291</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N29">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O29">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P29">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q29">
-        <v>374.0683450183295</v>
+        <v>18.7311442767625</v>
       </c>
       <c r="R29">
-        <v>2244.410070109977</v>
+        <v>112.386865660575</v>
       </c>
       <c r="S29">
-        <v>0.008407441463372007</v>
+        <v>0.0005078422350752626</v>
       </c>
       <c r="T29">
-        <v>0.006887614490551839</v>
+        <v>0.0004253215516855777</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.374463</v>
+        <v>0.5285683333333333</v>
       </c>
       <c r="H30">
-        <v>31.123389</v>
+        <v>1.585705</v>
       </c>
       <c r="I30">
-        <v>0.07561091212966771</v>
+        <v>0.003560445814819949</v>
       </c>
       <c r="J30">
-        <v>0.08118189713845646</v>
+        <v>0.00395649346020291</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N30">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O30">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P30">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q30">
-        <v>443.1698333109337</v>
+        <v>1.798724381153333</v>
       </c>
       <c r="R30">
-        <v>3988.528499798403</v>
+        <v>16.18851943038</v>
       </c>
       <c r="S30">
-        <v>0.009960544594361314</v>
+        <v>4.876734685891608E-05</v>
       </c>
       <c r="T30">
-        <v>0.0122399409346102</v>
+        <v>6.126450954167593E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.374463</v>
+        <v>0.5285683333333333</v>
       </c>
       <c r="H31">
-        <v>31.123389</v>
+        <v>1.585705</v>
       </c>
       <c r="I31">
-        <v>0.07561091212966771</v>
+        <v>0.003560445814819949</v>
       </c>
       <c r="J31">
-        <v>0.08118189713845646</v>
+        <v>0.00395649346020291</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N31">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O31">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P31">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q31">
-        <v>179.267214071506</v>
+        <v>7.04609919596</v>
       </c>
       <c r="R31">
-        <v>1613.404926643554</v>
+        <v>63.41489276364</v>
       </c>
       <c r="S31">
-        <v>0.004029153037619671</v>
+        <v>0.0001910351397312933</v>
       </c>
       <c r="T31">
-        <v>0.004951194659063953</v>
+        <v>0.0002399899706400255</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1.558209333333333</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="H32">
-        <v>4.674628</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="I32">
-        <v>0.0113565038481794</v>
+        <v>0.001957376813162035</v>
       </c>
       <c r="J32">
-        <v>0.0121932469968662</v>
+        <v>0.002175106422963506</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N32">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O32">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P32">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q32">
-        <v>135.2173982322613</v>
+        <v>14.70563982904116</v>
       </c>
       <c r="R32">
-        <v>811.3043893935679</v>
+        <v>88.23383897424699</v>
       </c>
       <c r="S32">
-        <v>0.003039103349981387</v>
+        <v>0.000398702016739944</v>
       </c>
       <c r="T32">
-        <v>0.002489719656426972</v>
+        <v>0.0003339158280029049</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1.558209333333333</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="H33">
-        <v>4.674628</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="I33">
-        <v>0.0113565038481794</v>
+        <v>0.001957376813162035</v>
       </c>
       <c r="J33">
-        <v>0.0121932469968662</v>
+        <v>0.002175106422963506</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>386.726074</v>
       </c>
       <c r="O33">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P33">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q33">
-        <v>200.8667259833858</v>
+        <v>37.45876019284155</v>
       </c>
       <c r="R33">
-        <v>1807.800533850472</v>
+        <v>337.128841735574</v>
       </c>
       <c r="S33">
-        <v>0.004514616815709841</v>
+        <v>0.001015588808585532</v>
       </c>
       <c r="T33">
-        <v>0.005547753201965332</v>
+        <v>0.001275844479175969</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1.558209333333333</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="H34">
-        <v>4.674628</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="I34">
-        <v>0.0113565038481794</v>
+        <v>0.001957376813162035</v>
       </c>
       <c r="J34">
-        <v>0.0121932469968662</v>
+        <v>0.002175106422963506</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N34">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O34">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P34">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q34">
-        <v>19.52372148382445</v>
+        <v>4.871010707367</v>
       </c>
       <c r="R34">
-        <v>175.71349335442</v>
+        <v>43.839096366303</v>
       </c>
       <c r="S34">
-        <v>0.000438808970896453</v>
+        <v>0.0001320637398417578</v>
       </c>
       <c r="T34">
-        <v>0.0005392271310536781</v>
+        <v>0.0001659065085712273</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1.558209333333333</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="H35">
-        <v>4.674628</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="I35">
-        <v>0.0113565038481794</v>
+        <v>0.001957376813162035</v>
       </c>
       <c r="J35">
-        <v>0.0121932469968662</v>
+        <v>0.002175106422963506</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N35">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O35">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P35">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q35">
-        <v>56.18380310500066</v>
+        <v>10.2975608668775</v>
       </c>
       <c r="R35">
-        <v>337.102818630004</v>
+        <v>61.78536520126499</v>
       </c>
       <c r="S35">
-        <v>0.001262769336367571</v>
+        <v>0.0002791893676750059</v>
       </c>
       <c r="T35">
-        <v>0.001034496453800046</v>
+        <v>0.0002338231184258447</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>1.558209333333333</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="H36">
-        <v>4.674628</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="I36">
-        <v>0.0113565038481794</v>
+        <v>0.001957376813162035</v>
       </c>
       <c r="J36">
-        <v>0.0121932469968662</v>
+        <v>0.002175106422963506</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N36">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O36">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P36">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q36">
-        <v>66.56261345930622</v>
+        <v>0.9888597046706666</v>
       </c>
       <c r="R36">
-        <v>599.063521133756</v>
+        <v>8.899737342036</v>
       </c>
       <c r="S36">
-        <v>0.001496040185599648</v>
+        <v>2.681014652259213E-05</v>
       </c>
       <c r="T36">
-        <v>0.001838397823941186</v>
+        <v>3.368053796731771E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>1.558209333333333</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="H37">
-        <v>4.674628</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="I37">
-        <v>0.0113565038481794</v>
+        <v>0.001957376813162035</v>
       </c>
       <c r="J37">
-        <v>0.0121932469968662</v>
+        <v>0.002175106422963506</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N37">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O37">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P37">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q37">
-        <v>26.92533060524534</v>
+        <v>3.873636029512</v>
       </c>
       <c r="R37">
-        <v>242.327975447208</v>
+        <v>34.86272426560799</v>
       </c>
       <c r="S37">
-        <v>0.0006051651896244965</v>
+        <v>0.0001050227337972035</v>
       </c>
       <c r="T37">
-        <v>0.0007436527296789822</v>
+        <v>0.0001319359508202426</v>
       </c>
     </row>
   </sheetData>
